--- a/supplies for bidding.xlsx
+++ b/supplies for bidding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTS\Chiantine\# PPMP\PPMP new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BB48E2-0B99-43CD-A008-EC8BC75C2FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0208B02-37BC-4064-BB23-DC3474CCE179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,7 +879,7 @@
     <t>Clearbook, 20 transparent pockets, for Legal size</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                </t>
+    <t>DRRMO</t>
   </si>
 </sst>
 </file>
@@ -888,14 +888,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1009,58 +1016,60 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1340,8 +1349,8 @@
   <dimension ref="A1:BB258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G245" sqref="G245"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1356,7 +1365,9 @@
     <col min="10" max="11" width="8.85546875" style="2"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
-    <col min="14" max="50" width="8.85546875" style="2"/>
+    <col min="14" max="28" width="8.85546875" style="2"/>
+    <col min="29" max="29" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="50" width="8.85546875" style="2"/>
     <col min="51" max="54" width="8.85546875" style="5"/>
     <col min="55" max="16384" width="8.85546875" style="7"/>
   </cols>
@@ -1424,7 +1435,7 @@
       <c r="AB1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="28" t="s">
         <v>282</v>
       </c>
       <c r="AD1" s="2" t="s">
@@ -1561,7 +1572,7 @@
       <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="11">
@@ -1580,7 +1591,7 @@
       <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="11">
@@ -1599,7 +1610,7 @@
       <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="11">
@@ -1949,7 +1960,7 @@
       <c r="F27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="26" t="s">
         <v>49</v>
       </c>
       <c r="H27" s="11">
@@ -2264,7 +2275,7 @@
       <c r="F40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="26" t="s">
         <v>65</v>
       </c>
       <c r="H40" s="11">
@@ -2345,7 +2356,7 @@
       <c r="F43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="26" t="s">
         <v>69</v>
       </c>
       <c r="H43" s="11">
@@ -2560,7 +2571,7 @@
       <c r="F52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="26" t="s">
         <v>78</v>
       </c>
       <c r="H52" s="11">
@@ -2798,7 +2809,7 @@
       <c r="F64" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="27" t="s">
         <v>92</v>
       </c>
       <c r="H64" s="11">
@@ -3488,6 +3499,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="J79" s="28"/>
     </row>
     <row r="80" spans="1:54">
       <c r="E80" s="9">
@@ -3497,7 +3509,7 @@
       <c r="F80" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="26" t="s">
         <v>111</v>
       </c>
       <c r="H80" s="11">
@@ -3668,7 +3680,7 @@
       <c r="F89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="26" t="s">
         <v>122</v>
       </c>
       <c r="H89" s="11">
@@ -3687,7 +3699,7 @@
       <c r="F90" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H90" s="11">
@@ -3706,7 +3718,7 @@
       <c r="F91" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="26" t="s">
         <v>124</v>
       </c>
       <c r="H91" s="11">
@@ -3989,7 +4001,7 @@
       <c r="F106" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G106" s="26" t="s">
         <v>140</v>
       </c>
       <c r="H106" s="11">
@@ -6396,32 +6408,32 @@
       </c>
     </row>
     <row r="221" spans="1:54">
-      <c r="D221" s="24" t="s">
+      <c r="D221" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
-      <c r="G221" s="24"/>
-      <c r="H221" s="24"/>
-      <c r="I221" s="24"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="25"/>
+      <c r="I221" s="25"/>
     </row>
     <row r="222" spans="1:54">
-      <c r="D222" s="24"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="24"/>
-      <c r="G222" s="24"/>
-      <c r="H222" s="24"/>
-      <c r="I222" s="24"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
+      <c r="F222" s="25"/>
+      <c r="G222" s="25"/>
+      <c r="H222" s="25"/>
+      <c r="I222" s="25"/>
     </row>
     <row r="223" spans="1:54">
-      <c r="D223" s="21" t="s">
+      <c r="D223" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="E223" s="22"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="22"/>
-      <c r="H223" s="22"/>
-      <c r="I223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="23"/>
+      <c r="I223" s="24"/>
     </row>
     <row r="224" spans="1:54">
       <c r="D224" s="20"/>

--- a/supplies for bidding.xlsx
+++ b/supplies for bidding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTS\Chiantine\# PPMP\PPMP new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0208B02-37BC-4064-BB23-DC3474CCE179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43B1B0-46E8-4D39-9294-633DA79A1B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,12 +890,19 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1016,9 +1023,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,12 +1033,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1042,32 +1049,33 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1349,8 +1357,8 @@
   <dimension ref="A1:BB258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1435,7 +1443,7 @@
       <c r="AB1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="24" t="s">
         <v>282</v>
       </c>
       <c r="AD1" s="2" t="s">
@@ -1960,7 +1968,7 @@
       <c r="F27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="22" t="s">
         <v>49</v>
       </c>
       <c r="H27" s="11">
@@ -2275,7 +2283,7 @@
       <c r="F40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="22" t="s">
         <v>65</v>
       </c>
       <c r="H40" s="11">
@@ -2356,7 +2364,7 @@
       <c r="F43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="22" t="s">
         <v>69</v>
       </c>
       <c r="H43" s="11">
@@ -2571,7 +2579,7 @@
       <c r="F52" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="22" t="s">
         <v>78</v>
       </c>
       <c r="H52" s="11">
@@ -2809,7 +2817,7 @@
       <c r="F64" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="23" t="s">
         <v>92</v>
       </c>
       <c r="H64" s="11">
@@ -3499,7 +3507,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J79" s="28"/>
+      <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:54">
       <c r="E80" s="9">
@@ -3509,7 +3517,7 @@
       <c r="F80" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="22" t="s">
         <v>111</v>
       </c>
       <c r="H80" s="11">
@@ -3528,7 +3536,7 @@
       <c r="F81" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="G81" s="22" t="s">
         <v>112</v>
       </c>
       <c r="H81" s="11">
@@ -3680,7 +3688,7 @@
       <c r="F89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="22" t="s">
         <v>122</v>
       </c>
       <c r="H89" s="11">
@@ -3699,7 +3707,7 @@
       <c r="F90" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="22" t="s">
         <v>123</v>
       </c>
       <c r="H90" s="11">
@@ -3718,7 +3726,7 @@
       <c r="F91" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="22" t="s">
         <v>124</v>
       </c>
       <c r="H91" s="11">
@@ -3756,7 +3764,7 @@
       <c r="F93" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="22" t="s">
         <v>126</v>
       </c>
       <c r="H93" s="11">
@@ -4001,7 +4009,7 @@
       <c r="F106" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G106" s="22" t="s">
         <v>140</v>
       </c>
       <c r="H106" s="11">
@@ -4115,7 +4123,7 @@
       <c r="F112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="23" t="s">
         <v>146</v>
       </c>
       <c r="H112" s="11"/>
@@ -4132,7 +4140,7 @@
       <c r="F113" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="23" t="s">
         <v>148</v>
       </c>
       <c r="H113" s="11"/>
@@ -4202,7 +4210,7 @@
       <c r="F117" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="23" t="s">
         <v>153</v>
       </c>
       <c r="H117" s="11"/>
@@ -4884,7 +4892,7 @@
       <c r="F144" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G144" s="25" t="s">
         <v>180</v>
       </c>
       <c r="H144" s="11">
@@ -4903,7 +4911,7 @@
       <c r="F145" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G145" s="10" t="s">
+      <c r="G145" s="25" t="s">
         <v>181</v>
       </c>
       <c r="H145" s="11">
@@ -5196,7 +5204,7 @@
       <c r="F160" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G160" s="10" t="s">
+      <c r="G160" s="22" t="s">
         <v>198</v>
       </c>
       <c r="H160" s="11">
@@ -5234,7 +5242,7 @@
       <c r="F162" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G162" s="10" t="s">
+      <c r="G162" s="22" t="s">
         <v>201</v>
       </c>
       <c r="H162" s="11">
@@ -5272,7 +5280,7 @@
       <c r="F164" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G164" s="10" t="s">
+      <c r="G164" s="22" t="s">
         <v>203</v>
       </c>
       <c r="H164" s="11">
@@ -5291,7 +5299,7 @@
       <c r="F165" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G165" s="10" t="s">
+      <c r="G165" s="22" t="s">
         <v>204</v>
       </c>
       <c r="H165" s="11">
@@ -5329,7 +5337,7 @@
       <c r="F167" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G167" s="10" t="s">
+      <c r="G167" s="22" t="s">
         <v>206</v>
       </c>
       <c r="H167" s="11">
@@ -5581,7 +5589,7 @@
       <c r="F179" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G179" s="10" t="s">
+      <c r="G179" s="22" t="s">
         <v>219</v>
       </c>
       <c r="H179" s="11">
@@ -5608,7 +5616,7 @@
       <c r="F180" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G180" s="10" t="s">
+      <c r="G180" s="25" t="s">
         <v>220</v>
       </c>
       <c r="H180" s="11">
@@ -6050,7 +6058,7 @@
       <c r="F200" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G200" s="10" t="s">
+      <c r="G200" s="25" t="s">
         <v>240</v>
       </c>
       <c r="H200" s="11">
@@ -6109,7 +6117,7 @@
       <c r="F203" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G203" s="10" t="s">
+      <c r="G203" s="25" t="s">
         <v>244</v>
       </c>
       <c r="H203" s="11">
@@ -6408,32 +6416,32 @@
       </c>
     </row>
     <row r="221" spans="1:54">
-      <c r="D221" s="25" t="s">
+      <c r="D221" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E221" s="25"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="25"/>
-      <c r="H221" s="25"/>
-      <c r="I221" s="25"/>
+      <c r="E221" s="29"/>
+      <c r="F221" s="29"/>
+      <c r="G221" s="29"/>
+      <c r="H221" s="29"/>
+      <c r="I221" s="29"/>
     </row>
     <row r="222" spans="1:54">
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
-      <c r="F222" s="25"/>
-      <c r="G222" s="25"/>
-      <c r="H222" s="25"/>
-      <c r="I222" s="25"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="29"/>
+      <c r="F222" s="29"/>
+      <c r="G222" s="29"/>
+      <c r="H222" s="29"/>
+      <c r="I222" s="29"/>
     </row>
     <row r="223" spans="1:54">
-      <c r="D223" s="22" t="s">
+      <c r="D223" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="E223" s="23"/>
-      <c r="F223" s="23"/>
-      <c r="G223" s="23"/>
-      <c r="H223" s="23"/>
-      <c r="I223" s="24"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="27"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="28"/>
     </row>
     <row r="224" spans="1:54">
       <c r="D224" s="20"/>
@@ -6679,7 +6687,7 @@
       <c r="F237" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="G237" s="10" t="s">
+      <c r="G237" s="25" t="s">
         <v>270</v>
       </c>
       <c r="H237" s="11">
@@ -6743,7 +6751,7 @@
       <c r="F241" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="G241" s="10" t="s">
+      <c r="G241" s="25" t="s">
         <v>276</v>
       </c>
       <c r="H241" s="11">
